--- a/config/testcase.xlsx
+++ b/config/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t>名字</t>
+    <t>测试员</t>
   </si>
   <si>
     <t>ID_001</t>
@@ -150,9 +150,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -193,9 +193,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,47 +215,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,6 +261,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -286,37 +314,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,187 +331,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,21 +522,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,6 +545,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,26 +608,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -642,16 +642,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -660,115 +660,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,8 +1142,8 @@
   <sheetPr/>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/config/testcase.xlsx
+++ b/config/testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -133,6 +133,47 @@
   </si>
   <si>
     <t>{"pageNum":"1","pageSize":"15","browseMode":"1","merchantName":"","taxpayerCondition":"","startDate":"","endDate":"","status":"","authStatus":"","signStatus":""}</t>
+  </si>
+  <si>
+    <t>ID_008</t>
+  </si>
+  <si>
+    <t>查看商户列表数据</t>
+  </si>
+  <si>
+    <t>http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantPage</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"merchantName":"",
+"pageNum":"1",
+"pageSize":"15"}</t>
+  </si>
+  <si>
+    <t>ID_009</t>
+  </si>
+  <si>
+    <t>查看商户详情信息</t>
+  </si>
+  <si>
+    <t>http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantById</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{"6735026743345618944"}</t>
+  </si>
+  <si>
+    <t>ID_010</t>
+  </si>
+  <si>
+    <t>ID_011</t>
+  </si>
+  <si>
+    <t>ID_012</t>
   </si>
   <si>
     <t>status_code</t>
@@ -149,10 +190,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -187,14 +228,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,15 +331,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,21 +349,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,69 +362,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -331,19 +372,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +516,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,151 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,11 +566,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,17 +620,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,8 +632,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,41 +663,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -630,149 +671,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -787,6 +828,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1142,8 +1186,8 @@
   <sheetPr/>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1205,8 +1249,8 @@
       <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
@@ -1227,8 +1271,8 @@
       <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" ht="69" customHeight="1" spans="1:7">
       <c r="A4" s="3" t="s">
@@ -1330,11 +1374,58 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" ht="69" customHeight="1"/>
-    <row r="10" ht="69" customHeight="1"/>
-    <row r="11" ht="69" customHeight="1"/>
-    <row r="12" ht="69" customHeight="1"/>
-    <row r="13" ht="69" customHeight="1"/>
+    <row r="9" ht="69" customHeight="1" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" ht="69" customHeight="1" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" ht="69" customHeight="1" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" ht="69" customHeight="1" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" ht="69" customHeight="1" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="14" ht="69" customHeight="1"/>
     <row r="15" ht="69" customHeight="1"/>
     <row r="16" ht="69" customHeight="1"/>
@@ -1347,6 +1438,8 @@
     <hyperlink ref="C3" r:id="rId5" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxRecord/statisticsTaxRecord"/>
     <hyperlink ref="C5" r:id="rId6" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/incomeStream/selectIncomeStreamPage"/>
     <hyperlink ref="C8" r:id="rId7" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxpayer/selectTaxpayerPage"/>
+    <hyperlink ref="C9" r:id="rId8" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantPage"/>
+    <hyperlink ref="C10" r:id="rId9" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantById" tooltip="http://account-admin-webos-test.lastmiles.cn/account-admin-web/merchant/selectMerchantById"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1394,13 +1487,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="97.95" customHeight="1"/>

--- a/config/testcase.xlsx
+++ b/config/testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>测试结果</t>
+  </si>
+  <si>
+    <t>接口返回信息</t>
   </si>
   <si>
     <t>测试员</t>
@@ -190,10 +193,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -228,6 +231,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -235,6 +253,74 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -242,33 +328,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,85 +360,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -372,6 +375,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -384,7 +477,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,79 +519,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,79 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,6 +566,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,30 +615,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,37 +643,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,10 +674,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -683,16 +686,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -701,119 +704,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -828,9 +831,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1184,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1197,11 +1197,11 @@
     <col min="3" max="3" width="47.375" style="3" customWidth="1"/>
     <col min="4" max="6" width="21" style="3" customWidth="1"/>
     <col min="7" max="7" width="37.25" style="3" customWidth="1"/>
-    <col min="8" max="10" width="21" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="8" max="11" width="21" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="69" customHeight="1" spans="1:9">
+    <row r="1" ht="69" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1229,201 +1229,204 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="69" customHeight="1" spans="1:14">
+    <row r="2" ht="69" customHeight="1" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" ht="69" customHeight="1" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" ht="69" customHeight="1" spans="1:14">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" ht="69" customHeight="1" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="69" customHeight="1" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="69" customHeight="1" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="69" customHeight="1" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" ht="69" customHeight="1" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="69" customHeight="1" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" ht="69" customHeight="1" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" ht="69" customHeight="1" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" ht="69" customHeight="1" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" ht="69" customHeight="1" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" ht="69" customHeight="1"/>
@@ -1487,13 +1490,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="97.95" customHeight="1"/>

--- a/config/testcase.xlsx
+++ b/config/testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -168,15 +168,6 @@
   </si>
   <si>
     <t>{"6735026743345618944"}</t>
-  </si>
-  <si>
-    <t>ID_010</t>
-  </si>
-  <si>
-    <t>ID_011</t>
-  </si>
-  <si>
-    <t>ID_012</t>
   </si>
   <si>
     <t>status_code</t>
@@ -193,10 +184,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -231,7 +222,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,127 +356,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -375,49 +366,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,133 +540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,41 +557,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -615,6 +571,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,8 +613,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,8 +637,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -686,133 +677,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1414,24 +1405,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" ht="69" customHeight="1" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" ht="69" customHeight="1" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" ht="69" customHeight="1" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" ht="69" customHeight="1"/>
-    <row r="15" ht="69" customHeight="1"/>
-    <row r="16" ht="69" customHeight="1"/>
+    <row r="11" ht="69" customHeight="1"/>
+    <row r="12" ht="69" customHeight="1"/>
+    <row r="13" ht="69" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxRecord/selectTaxRecordPage" tooltip="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxRecord/selectTaxRecordPage"/>
@@ -1490,13 +1466,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" ht="97.95" customHeight="1"/>

--- a/config/testcase.xlsx
+++ b/config/testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>测试结果</t>
+  </si>
+  <si>
+    <t>接口返回信息</t>
   </si>
   <si>
     <t>测试员</t>
@@ -165,15 +168,6 @@
   </si>
   <si>
     <t>{"6735026743345618944"}</t>
-  </si>
-  <si>
-    <t>ID_010</t>
-  </si>
-  <si>
-    <t>ID_011</t>
-  </si>
-  <si>
-    <t>ID_012</t>
   </si>
   <si>
     <t>status_code</t>
@@ -234,31 +228,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,37 +280,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,6 +311,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -347,9 +342,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,25 +366,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,157 +534,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,26 +575,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,8 +613,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,19 +637,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -683,137 +677,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -828,9 +822,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1184,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1197,11 +1188,11 @@
     <col min="3" max="3" width="47.375" style="3" customWidth="1"/>
     <col min="4" max="6" width="21" style="3" customWidth="1"/>
     <col min="7" max="7" width="37.25" style="3" customWidth="1"/>
-    <col min="8" max="10" width="21" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="8" max="11" width="21" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="69" customHeight="1" spans="1:9">
+    <row r="1" ht="69" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1229,206 +1220,194 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="69" customHeight="1" spans="1:14">
+    <row r="2" ht="69" customHeight="1" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" ht="69" customHeight="1" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" ht="69" customHeight="1" spans="1:14">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" ht="69" customHeight="1" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="69" customHeight="1" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="69" customHeight="1" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="69" customHeight="1" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" ht="69" customHeight="1" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="69" customHeight="1" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" ht="69" customHeight="1" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="11" ht="69" customHeight="1" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" ht="69" customHeight="1" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" ht="69" customHeight="1" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" ht="69" customHeight="1"/>
-    <row r="15" ht="69" customHeight="1"/>
-    <row r="16" ht="69" customHeight="1"/>
+    <row r="11" ht="69" customHeight="1"/>
+    <row r="12" ht="69" customHeight="1"/>
+    <row r="13" ht="69" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxRecord/selectTaxRecordPage" tooltip="http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxRecord/selectTaxRecordPage"/>
@@ -1487,13 +1466,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" ht="97.95" customHeight="1"/>

--- a/config/testcase.xlsx
+++ b/config/testcase.xlsx
@@ -63,7 +63,7 @@
     <t>application/x-www-form-urlencoded</t>
   </si>
   <si>
-    <t>{"pageNum":"1",pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
+    <t>{"pageNum":"1","pageSize":"15","merchantId":"","startDate":"2020-12","endDate":"2020-12","taxpayer":"","status":"0","type":"3","order":"2","businessNo":"","amountRangeJson":"[]"}</t>
   </si>
   <si>
     <t>ID_002</t>
@@ -184,10 +184,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -222,12 +222,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -236,14 +297,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,17 +328,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,78 +344,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -366,25 +366,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,157 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +557,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -571,65 +591,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,6 +618,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -665,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -677,133 +677,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/config/testcase.xlsx
+++ b/config/testcase.xlsx
@@ -75,7 +75,7 @@
     <t>http://account-admin-webos-test.lastmiles.cn/account-admin-web/taxRecord/statisticsTaxRecord</t>
   </si>
   <si>
-    <t>{"tartDate":"2020-12","endDate":"2020-12","merchantId":"","taxpayer":"","status":"0","type":"3""businessNo":"","amountRangeJson":"[]"}</t>
+    <t>{"tartDate":"2020-12","endDate":"2020-12","merchantId":"","taxpayer":"","status":"0","type":"3","businessNo":"","amountRangeJson":"[]"}</t>
   </si>
   <si>
     <t>ID_003</t>
@@ -184,10 +184,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -228,47 +228,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,14 +267,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,6 +290,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -328,9 +320,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,16 +334,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,187 +366,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,22 +560,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,8 +593,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,17 +629,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -677,16 +677,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -695,115 +695,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
